--- a/Farmako/Farmako.xlsx
+++ b/Farmako/Farmako.xlsx
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>FARMAKO</t>
   </si>
@@ -588,9 +588,6 @@
     <t>Workflow</t>
   </si>
   <si>
-    <t>1. What if each final product type has different flows of jobs?</t>
-  </si>
-  <si>
     <t>Manage Jobs</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
   </si>
   <si>
     <t>Wads</t>
-  </si>
-  <si>
-    <t>Knulling</t>
   </si>
   <si>
     <t>Business Details</t>
@@ -825,9 +819,6 @@
     <t>{ Admin can also fix a specific workflow process as start of Job }</t>
   </si>
   <si>
-    <t>Knulling Caps</t>
-  </si>
-  <si>
     <t>Wadding Caps &amp; Wads</t>
   </si>
   <si>
@@ -849,25 +840,19 @@
     <t>{ User Role will also enter the Resource/Worker Name, who is responsible for the job }</t>
   </si>
   <si>
-    <t>Monthly Product Slip</t>
-  </si>
-  <si>
     <t>Expected Caps</t>
   </si>
   <si>
     <t>Flip Offs</t>
   </si>
   <si>
-    <t>2. Current Paper work</t>
-  </si>
-  <si>
-    <t>3. Additional Features compared to the current paper work</t>
-  </si>
-  <si>
-    <t>4. Inventory Items</t>
-  </si>
-  <si>
-    <t>5. Inventory Item Attributes</t>
+    <t>Monthly Production Slip</t>
+  </si>
+  <si>
+    <t>Knurling</t>
+  </si>
+  <si>
+    <t>Knurling Caps</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1291,7 @@
   <dimension ref="C1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1330,7 @@
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>21</v>
@@ -1379,7 +1364,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>33</v>
@@ -1390,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -1412,7 +1397,7 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
@@ -1482,91 +1467,74 @@
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1603,7 +1573,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>32</v>
@@ -1612,18 +1582,18 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1634,10 +1604,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1645,58 +1615,58 @@
         <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
       <c r="G10" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -1704,21 +1674,21 @@
         <v>39</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -1726,23 +1696,23 @@
         <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E15" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E16" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
@@ -1750,15 +1720,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
@@ -1766,15 +1736,15 @@
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
@@ -1782,32 +1752,32 @@
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E24" s="12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E26" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
@@ -1817,17 +1787,17 @@
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E28" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E29" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E30" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.25">
@@ -1845,7 +1815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1857,10 +1829,10 @@
   <sheetData>
     <row r="1" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>2</v>
@@ -1868,35 +1840,35 @@
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -1904,10 +1876,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -1915,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -1931,12 +1903,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>22</v>
@@ -1944,50 +1916,50 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -1995,42 +1967,42 @@
         <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
@@ -2040,27 +2012,27 @@
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
